--- a/Prediction of Placement Status.xlsx
+++ b/Prediction of Placement Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RASHEED\Desktop\project\Prediction of Placement Status Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F495BD6-3E99-45B8-A622-E58DB0D5077C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19738F-BDCB-4D49-91A6-F350DE3EF564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14346,7 +14346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15007,7 +15009,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -16641,7 +16643,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -17363,7 +17365,7 @@
         <v>-1.0619221451036329</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -19415,7 +19417,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -23329,7 +23331,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
@@ -23443,7 +23445,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
@@ -24051,7 +24053,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
@@ -24279,7 +24281,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
@@ -25267,7 +25269,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -25419,7 +25421,7 @@
         <v>-1.0619221451036329</v>
       </c>
       <c r="L291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
@@ -25457,7 +25459,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -25533,7 +25535,7 @@
         <v>-1.0619221451036329</v>
       </c>
       <c r="L294">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
@@ -25609,7 +25611,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L296">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -25799,7 +25801,7 @@
         <v>-0.24089572978533449</v>
       </c>
       <c r="L301">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
@@ -25837,7 +25839,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
@@ -25913,7 +25915,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
@@ -26293,7 +26295,7 @@
         <v>-1.0619221451036329</v>
       </c>
       <c r="L314">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
@@ -26521,7 +26523,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
@@ -26711,7 +26713,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.3">
@@ -26787,7 +26789,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
@@ -26825,7 +26827,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.3">
@@ -26939,7 +26941,7 @@
         <v>-0.24089572978533449</v>
       </c>
       <c r="L331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
@@ -27433,7 +27435,7 @@
         <v>-1.0619221451036329</v>
       </c>
       <c r="L344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
@@ -27851,7 +27853,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L355">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -28079,7 +28081,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -28421,7 +28423,7 @@
         <v>-0.24089572978533449</v>
       </c>
       <c r="L370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
@@ -28748,7 +28750,7 @@
         <v>16</v>
       </c>
       <c r="G379">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H379">
         <v>5.674538353264271E-13</v>
@@ -29280,7 +29282,7 @@
         <v>17</v>
       </c>
       <c r="G393">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H393">
         <v>5.674538353264271E-13</v>
@@ -36880,7 +36882,7 @@
         <v>21</v>
       </c>
       <c r="G593">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H593">
         <v>5.674538353264271E-13</v>
@@ -36956,7 +36958,7 @@
         <v>13</v>
       </c>
       <c r="G595">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H595">
         <v>5.674538353264271E-13</v>
@@ -39008,7 +39010,7 @@
         <v>53</v>
       </c>
       <c r="G649">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H649">
         <v>5.674538353264271E-13</v>
@@ -45088,7 +45090,7 @@
         <v>46</v>
       </c>
       <c r="G809">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H809">
         <v>5.674538353264271E-13</v>
@@ -47441,7 +47443,7 @@
         <v>0</v>
       </c>
       <c r="F871">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G871">
         <v>45</v>
@@ -50522,7 +50524,7 @@
         <v>51</v>
       </c>
       <c r="G952">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H952">
         <v>5.674538353264271E-13</v>
@@ -50750,7 +50752,7 @@
         <v>48</v>
       </c>
       <c r="G958">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H958">
         <v>5.674538353264271E-13</v>
@@ -50788,7 +50790,7 @@
         <v>42</v>
       </c>
       <c r="G959">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H959">
         <v>5.674538353264271E-13</v>
@@ -57833,7 +57835,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L1144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:12" x14ac:dyDescent="0.3">
@@ -58023,7 +58025,7 @@
         <v>-0.24089572978533449</v>
       </c>
       <c r="L1149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:12" x14ac:dyDescent="0.3">
@@ -59239,7 +59241,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L1181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:12" x14ac:dyDescent="0.3">
@@ -60493,7 +60495,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L1214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:12" x14ac:dyDescent="0.3">
@@ -60987,7 +60989,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L1227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:12" x14ac:dyDescent="0.3">
@@ -61025,7 +61027,7 @@
         <v>-0.24089572978533449</v>
       </c>
       <c r="L1228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:12" x14ac:dyDescent="0.3">
@@ -61215,7 +61217,7 @@
         <v>-1.0619221451036329</v>
       </c>
       <c r="L1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:12" x14ac:dyDescent="0.3">
@@ -61709,7 +61711,7 @@
         <v>-1.0619221451036329</v>
       </c>
       <c r="L1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:12" x14ac:dyDescent="0.3">
@@ -61975,7 +61977,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L1253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:12" x14ac:dyDescent="0.3">
@@ -62203,7 +62205,7 @@
         <v>0.58013068553296443</v>
       </c>
       <c r="L1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:12" x14ac:dyDescent="0.3">
@@ -62621,7 +62623,7 @@
         <v>-0.24089572978533449</v>
       </c>
       <c r="L1270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:12" x14ac:dyDescent="0.3">
@@ -62849,7 +62851,7 @@
         <v>-1.0619221451036329</v>
       </c>
       <c r="L1276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:12" x14ac:dyDescent="0.3">
@@ -63077,7 +63079,7 @@
         <v>1.4011571008512631</v>
       </c>
       <c r="L1282">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:12" x14ac:dyDescent="0.3">
@@ -63153,7 +63155,7 @@
         <v>-1.0619221451036329</v>
       </c>
       <c r="L1284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:12" x14ac:dyDescent="0.3">
@@ -65266,7 +65268,7 @@
         <v>40</v>
       </c>
       <c r="G1340">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1340">
         <v>5.674538353264271E-13</v>
@@ -65342,7 +65344,7 @@
         <v>43</v>
       </c>
       <c r="G1342">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1342">
         <v>5.674538353264271E-13</v>
@@ -66976,7 +66978,7 @@
         <v>33</v>
       </c>
       <c r="G1385">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1385">
         <v>5.674538353264271E-13</v>
